--- a/Presentacion 1/resultados_comparacion_ols_lasso.xlsx
+++ b/Presentacion 1/resultados_comparacion_ols_lasso.xlsx
@@ -1826,19 +1826,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
       <c r="D62">
-        <v>0.0023</v>
+        <v>0</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
       <c r="F62">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1846,7 +1846,7 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1866,19 +1866,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C64">
         <v>0</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>0.6012999999999999</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
       <c r="F64">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -3290,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>0.0582</v>
+        <v>0</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -3304,7 +3304,7 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -3330,7 +3330,7 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>0.1435</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -4748,7 +4748,7 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>0.135</v>
+        <v>0</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -4762,7 +4762,7 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -4774,7 +4774,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -4788,7 +4788,7 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>0.0059</v>
       </c>
       <c r="E64">
         <v>0</v>

--- a/Presentacion 1/resultados_comparacion_ols_lasso.xlsx
+++ b/Presentacion 1/resultados_comparacion_ols_lasso.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ESTEFANO\Documents\GitHub\Big-Data-y-Machine-Learning\Presentacion 1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Comp_Matemática" sheetId="1" r:id="rId1"/>
     <sheet name="Comp_Lengua" sheetId="2" r:id="rId2"/>
     <sheet name="Comp_Ciencias" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Comp_Lengua!$A$1:$F$73</definedName>
+  </definedNames>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -252,8 +260,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,11 +324,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -362,7 +378,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -394,9 +410,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -428,6 +445,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -603,14 +621,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -627,7 +652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -635,13 +660,13 @@
         <v>19899.2945</v>
       </c>
       <c r="C2">
-        <v>52832.601</v>
+        <v>52832.601000000002</v>
       </c>
       <c r="D2">
-        <v>0.7064</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.70640000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -655,133 +680,133 @@
         <v>0.1079</v>
       </c>
       <c r="E3">
-        <v>0.8815</v>
+        <v>0.88149999999999995</v>
       </c>
       <c r="F3">
-        <v>2.1688</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>2.1688000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B4">
-        <v>7.2264</v>
+        <v>7.2263999999999999</v>
       </c>
       <c r="C4">
-        <v>1.4692</v>
+        <v>1.4692000000000001</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>4.2259</v>
+        <v>4.2259000000000002</v>
       </c>
       <c r="F4">
-        <v>3.0005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>3.0005000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0.0347</v>
+        <v>3.4700000000000002E-2</v>
       </c>
       <c r="C5">
-        <v>0.0275</v>
+        <v>2.75E-2</v>
       </c>
       <c r="D5">
-        <v>0.2081</v>
+        <v>0.20810000000000001</v>
       </c>
       <c r="E5">
-        <v>1.0529</v>
+        <v>1.0528999999999999</v>
       </c>
       <c r="F5">
         <v>-1.0182</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6">
-        <v>-20.5699</v>
+        <v>-20.569900000000001</v>
       </c>
       <c r="C6">
-        <v>2.2128</v>
+        <v>2.2128000000000001</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>-6.6108</v>
+        <v>-6.6108000000000002</v>
       </c>
       <c r="F6">
-        <v>-13.9591</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-13.959099999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7">
-        <v>-8.589600000000001</v>
+        <v>-8.5896000000000008</v>
       </c>
       <c r="C7">
-        <v>1.9864</v>
+        <v>1.9863999999999999</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>-2.1378</v>
+        <v>-2.1377999999999999</v>
       </c>
       <c r="F7">
-        <v>-6.4518</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-6.4518000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B8">
-        <v>-2.8538</v>
+        <v>-2.8538000000000001</v>
       </c>
       <c r="C8">
-        <v>1.162</v>
+        <v>1.1619999999999999</v>
       </c>
       <c r="D8">
-        <v>0.0141</v>
+        <v>1.41E-2</v>
       </c>
       <c r="E8">
-        <v>-1.2587</v>
+        <v>-1.2586999999999999</v>
       </c>
       <c r="F8">
         <v>-1.5951</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B9">
-        <v>-2.0979</v>
+        <v>-2.0979000000000001</v>
       </c>
       <c r="C9">
-        <v>0.1562</v>
+        <v>0.15620000000000001</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>-7.4147</v>
+        <v>-7.4146999999999998</v>
       </c>
       <c r="F9">
-        <v>5.3168</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>5.3167999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -795,18 +820,18 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>-4.5988</v>
+        <v>-4.5987999999999998</v>
       </c>
       <c r="F10">
         <v>3.0966</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B11">
-        <v>-2.4446</v>
+        <v>-2.4445999999999999</v>
       </c>
       <c r="C11">
         <v>0.1837</v>
@@ -818,30 +843,30 @@
         <v>-7.1932</v>
       </c>
       <c r="F11">
-        <v>4.7486</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>4.7485999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.5322</v>
+        <v>-0.53220000000000001</v>
       </c>
       <c r="C12">
         <v>0.159</v>
       </c>
       <c r="D12">
-        <v>0.0008</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="E12">
-        <v>-1.8601</v>
+        <v>-1.8601000000000001</v>
       </c>
       <c r="F12">
-        <v>1.3279</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>1.3279000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -849,39 +874,39 @@
         <v>1.9176</v>
       </c>
       <c r="C13">
-        <v>0.3245</v>
+        <v>0.32450000000000001</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>3.1681</v>
+        <v>3.1680999999999999</v>
       </c>
       <c r="F13">
-        <v>-1.2505</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-1.2504999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B14">
-        <v>7.8602</v>
+        <v>7.8601999999999999</v>
       </c>
       <c r="C14">
-        <v>1.6729</v>
+        <v>1.6729000000000001</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>2.8442</v>
+        <v>2.8441999999999998</v>
       </c>
       <c r="F14">
         <v>5.016</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -895,33 +920,33 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>4.2076</v>
+        <v>4.2076000000000002</v>
       </c>
       <c r="F15">
-        <v>8.798500000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>8.7985000000000007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B16">
-        <v>-5.1979</v>
+        <v>-5.1978999999999997</v>
       </c>
       <c r="C16">
-        <v>2.4729</v>
+        <v>2.4729000000000001</v>
       </c>
       <c r="D16">
-        <v>0.0356</v>
+        <v>3.56E-2</v>
       </c>
       <c r="E16">
-        <v>-1.0592</v>
+        <v>-1.0591999999999999</v>
       </c>
       <c r="F16">
         <v>-4.1387</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -929,70 +954,70 @@
         <v>1.1147</v>
       </c>
       <c r="C17">
-        <v>0.4183</v>
+        <v>0.41830000000000001</v>
       </c>
       <c r="D17">
-        <v>0.0077</v>
+        <v>7.7000000000000002E-3</v>
       </c>
       <c r="E17">
         <v>1.4031</v>
       </c>
       <c r="F17">
-        <v>-0.2884</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>-0.28839999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0.2076</v>
+        <v>0.20760000000000001</v>
       </c>
       <c r="C18">
-        <v>0.0306</v>
+        <v>3.0599999999999999E-2</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>3.5113</v>
+        <v>3.5112999999999999</v>
       </c>
       <c r="F18">
-        <v>-3.3037</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>-3.3037000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B19">
-        <v>0.844</v>
+        <v>0.84399999999999997</v>
       </c>
       <c r="C19">
-        <v>0.5943000000000001</v>
+        <v>0.59430000000000005</v>
       </c>
       <c r="D19">
         <v>0.1555</v>
       </c>
       <c r="E19">
-        <v>0.773</v>
+        <v>0.77300000000000002</v>
       </c>
       <c r="F19">
-        <v>0.07099999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>7.0999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B20">
-        <v>1.9227</v>
+        <v>1.9227000000000001</v>
       </c>
       <c r="C20">
-        <v>0.5893</v>
+        <v>0.58930000000000005</v>
       </c>
       <c r="D20">
-        <v>0.0011</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="E20">
         <v>1.7841</v>
@@ -1001,47 +1026,47 @@
         <v>0.1386</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B21">
-        <v>0.0926</v>
+        <v>9.2600000000000002E-2</v>
       </c>
       <c r="C21">
-        <v>0.5871</v>
+        <v>0.58709999999999996</v>
       </c>
       <c r="D21">
-        <v>0.8747</v>
+        <v>0.87470000000000003</v>
       </c>
       <c r="E21">
-        <v>0.0062</v>
+        <v>6.1999999999999998E-3</v>
       </c>
       <c r="F21">
-        <v>0.0864</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>8.6400000000000005E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.8925</v>
+        <v>-0.89249999999999996</v>
       </c>
       <c r="C22">
-        <v>0.5683</v>
+        <v>0.56830000000000003</v>
       </c>
       <c r="D22">
         <v>0.1163</v>
       </c>
       <c r="E22">
-        <v>-0.806</v>
+        <v>-0.80600000000000005</v>
       </c>
       <c r="F22">
-        <v>-0.08649999999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>-8.6499999999999994E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
@@ -1049,19 +1074,19 @@
         <v>-3.5568</v>
       </c>
       <c r="C23">
-        <v>0.5812</v>
+        <v>0.58120000000000005</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>-3.2234</v>
+        <v>-3.2233999999999998</v>
       </c>
       <c r="F23">
-        <v>-0.3334</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>-0.33339999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
@@ -1069,59 +1094,59 @@
         <v>1.5024</v>
       </c>
       <c r="C24">
-        <v>0.5752</v>
+        <v>0.57520000000000004</v>
       </c>
       <c r="D24">
-        <v>0.008999999999999999</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="E24">
-        <v>1.5028</v>
+        <v>1.5027999999999999</v>
       </c>
       <c r="F24">
-        <v>-0.0004</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B25">
-        <v>3.0761</v>
+        <v>3.0760999999999998</v>
       </c>
       <c r="C25">
-        <v>0.5999</v>
+        <v>0.59989999999999999</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>3.1093</v>
+        <v>3.1093000000000002</v>
       </c>
       <c r="F25">
-        <v>-0.0332</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-3.32E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B26">
-        <v>0.6806</v>
+        <v>0.68059999999999998</v>
       </c>
       <c r="C26">
-        <v>0.5473</v>
+        <v>0.54730000000000001</v>
       </c>
       <c r="D26">
-        <v>0.2136</v>
+        <v>0.21360000000000001</v>
       </c>
       <c r="E26">
-        <v>0.6609</v>
+        <v>0.66090000000000004</v>
       </c>
       <c r="F26">
-        <v>0.0197</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>1.9699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
@@ -1129,150 +1154,150 @@
         <v>4.7378</v>
       </c>
       <c r="C27">
-        <v>0.5664</v>
+        <v>0.56640000000000001</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>4.4568</v>
+        <v>4.4568000000000003</v>
       </c>
       <c r="F27">
-        <v>0.281</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.28100000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B28">
-        <v>-3.0856</v>
+        <v>-3.0855999999999999</v>
       </c>
       <c r="C28">
-        <v>0.5545</v>
+        <v>0.55449999999999999</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>-2.8702</v>
+        <v>-2.8702000000000001</v>
       </c>
       <c r="F28">
-        <v>-0.2154</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.21540000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B29">
-        <v>-3.3128</v>
+        <v>-3.3128000000000002</v>
       </c>
       <c r="C29">
-        <v>0.5223</v>
+        <v>0.52229999999999999</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>-3.4334</v>
+        <v>-3.4333999999999998</v>
       </c>
       <c r="F29">
         <v>0.1206</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B30">
-        <v>0.7609</v>
+        <v>0.76090000000000002</v>
       </c>
       <c r="C30">
-        <v>0.6286</v>
+        <v>0.62860000000000005</v>
       </c>
       <c r="D30">
         <v>0.2261</v>
       </c>
       <c r="E30">
-        <v>0.6586</v>
+        <v>0.65859999999999996</v>
       </c>
       <c r="F30">
         <v>0.1023</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B31">
-        <v>-1.1628</v>
+        <v>-1.1628000000000001</v>
       </c>
       <c r="C31">
-        <v>0.5392</v>
+        <v>0.53920000000000001</v>
       </c>
       <c r="D31">
-        <v>0.031</v>
+        <v>3.1E-2</v>
       </c>
       <c r="E31">
-        <v>-1.2105</v>
+        <v>-1.2104999999999999</v>
       </c>
       <c r="F31">
-        <v>0.0477</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>4.7699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B32">
-        <v>3.8253</v>
+        <v>3.8252999999999999</v>
       </c>
       <c r="C32">
-        <v>0.6374</v>
+        <v>0.63739999999999997</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>3.7722</v>
+        <v>3.7722000000000002</v>
       </c>
       <c r="F32">
-        <v>0.0531</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>5.3100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B33">
-        <v>-5.6534</v>
+        <v>-5.6534000000000004</v>
       </c>
       <c r="C33">
-        <v>0.6687</v>
+        <v>0.66869999999999996</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>-5.7173</v>
+        <v>-5.7172999999999998</v>
       </c>
       <c r="F33">
-        <v>0.0639</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>6.3899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B34">
-        <v>0.2313</v>
+        <v>0.23130000000000001</v>
       </c>
       <c r="C34">
-        <v>0.6489</v>
+        <v>0.64890000000000003</v>
       </c>
       <c r="D34">
-        <v>0.7215</v>
+        <v>0.72150000000000003</v>
       </c>
       <c r="E34">
         <v>0.126</v>
@@ -1281,7 +1306,7 @@
         <v>0.1053</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>38</v>
       </c>
@@ -1289,27 +1314,27 @@
         <v>-2.4981</v>
       </c>
       <c r="C35">
-        <v>0.6132</v>
+        <v>0.61319999999999997</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>-2.4774</v>
+        <v>-2.4773999999999998</v>
       </c>
       <c r="F35">
-        <v>-0.0207</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>-2.07E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B36">
-        <v>13.7031</v>
+        <v>13.703099999999999</v>
       </c>
       <c r="C36">
-        <v>0.6667999999999999</v>
+        <v>0.66679999999999995</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1318,58 +1343,58 @@
         <v>15.2018</v>
       </c>
       <c r="F36">
-        <v>-1.4987</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-1.4986999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B37">
-        <v>-3.0275</v>
+        <v>-3.0274999999999999</v>
       </c>
       <c r="C37">
-        <v>0.7778</v>
+        <v>0.77780000000000005</v>
       </c>
       <c r="D37">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="E37">
-        <v>-2.8354</v>
+        <v>-2.8353999999999999</v>
       </c>
       <c r="F37">
-        <v>-0.1921</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>-0.19209999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B38">
-        <v>5.6441</v>
+        <v>5.6440999999999999</v>
       </c>
       <c r="C38">
-        <v>0.4275</v>
+        <v>0.42749999999999999</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>8.454499999999999</v>
+        <v>8.4544999999999995</v>
       </c>
       <c r="F38">
         <v>-2.8104</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B39">
-        <v>-6.3945</v>
+        <v>-6.3944999999999999</v>
       </c>
       <c r="C39">
-        <v>0.5438</v>
+        <v>0.54379999999999995</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -1378,15 +1403,15 @@
         <v>-6.6696</v>
       </c>
       <c r="F39">
-        <v>0.2751</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.27510000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B40">
-        <v>3.5316</v>
+        <v>3.5316000000000001</v>
       </c>
       <c r="C40">
         <v>0.6159</v>
@@ -1395,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>3.5535</v>
+        <v>3.5535000000000001</v>
       </c>
       <c r="F40">
-        <v>-0.0219</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-2.1899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>44</v>
       </c>
@@ -1409,67 +1434,67 @@
         <v>-3.0021</v>
       </c>
       <c r="C41">
-        <v>0.6657999999999999</v>
+        <v>0.66579999999999995</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41">
-        <v>-2.8358</v>
+        <v>-2.8357999999999999</v>
       </c>
       <c r="F41">
         <v>-0.1663</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B42">
-        <v>-3.8352</v>
+        <v>-3.8351999999999999</v>
       </c>
       <c r="C42">
-        <v>0.6677999999999999</v>
+        <v>0.66779999999999995</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>-3.7181</v>
+        <v>-3.7181000000000002</v>
       </c>
       <c r="F42">
         <v>-0.1171</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B43">
-        <v>0.204</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="C43">
-        <v>0.6385</v>
+        <v>0.63849999999999996</v>
       </c>
       <c r="D43">
-        <v>0.7493</v>
+        <v>0.74929999999999997</v>
       </c>
       <c r="E43">
-        <v>0.1465</v>
+        <v>0.14649999999999999</v>
       </c>
       <c r="F43">
-        <v>0.0575</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>5.7500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B44">
-        <v>-6.2627</v>
+        <v>-6.2626999999999997</v>
       </c>
       <c r="C44">
-        <v>0.5133</v>
+        <v>0.51329999999999998</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -1481,7 +1506,7 @@
         <v>0.2152</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>48</v>
       </c>
@@ -1489,79 +1514,79 @@
         <v>2.6395</v>
       </c>
       <c r="C45">
-        <v>0.7088</v>
+        <v>0.70879999999999999</v>
       </c>
       <c r="D45">
-        <v>0.0002</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="E45">
-        <v>2.5008</v>
+        <v>2.5007999999999999</v>
       </c>
       <c r="F45">
-        <v>0.1387</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>0.13869999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B46">
-        <v>1.1666</v>
+        <v>1.1666000000000001</v>
       </c>
       <c r="C46">
-        <v>0.6584</v>
+        <v>0.65839999999999999</v>
       </c>
       <c r="D46">
-        <v>0.0764</v>
+        <v>7.6399999999999996E-2</v>
       </c>
       <c r="E46">
         <v>1.02</v>
       </c>
       <c r="F46">
-        <v>0.1466</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.14660000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B47">
-        <v>0.9998</v>
+        <v>0.99980000000000002</v>
       </c>
       <c r="C47">
         <v>0.3846</v>
       </c>
       <c r="D47">
-        <v>0.009299999999999999</v>
+        <v>9.2999999999999992E-3</v>
       </c>
       <c r="E47">
-        <v>2.3253</v>
+        <v>2.3252999999999999</v>
       </c>
       <c r="F47">
-        <v>-1.3255</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-1.3254999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B48">
-        <v>-4.0021</v>
+        <v>-4.0021000000000004</v>
       </c>
       <c r="C48">
         <v>1.0523</v>
       </c>
       <c r="D48">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="E48">
-        <v>-4.1469</v>
+        <v>-4.1468999999999996</v>
       </c>
       <c r="F48">
-        <v>0.1448</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.14480000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>52</v>
       </c>
@@ -1569,19 +1594,19 @@
         <v>-2408.6792</v>
       </c>
       <c r="C49">
-        <v>6551.1024</v>
+        <v>6551.1023999999998</v>
       </c>
       <c r="D49">
-        <v>0.7131</v>
+        <v>0.71309999999999996</v>
       </c>
       <c r="E49">
         <v>19.273</v>
       </c>
       <c r="F49">
-        <v>-2427.9522</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>-2427.9522000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>53</v>
       </c>
@@ -1592,7 +1617,7 @@
         <v>15467.7534</v>
       </c>
       <c r="D50">
-        <v>0.711</v>
+        <v>0.71099999999999997</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -1601,7 +1626,7 @@
         <v>5730.8453</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>54</v>
       </c>
@@ -1609,7 +1634,7 @@
         <v>1.4434</v>
       </c>
       <c r="C51">
-        <v>0.3403</v>
+        <v>0.34029999999999999</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -1621,7 +1646,7 @@
         <v>-2.1469</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>55</v>
       </c>
@@ -1629,27 +1654,27 @@
         <v>-964.8886</v>
       </c>
       <c r="C52">
-        <v>2617.7461</v>
+        <v>2617.7460999999998</v>
       </c>
       <c r="D52">
-        <v>0.7124</v>
+        <v>0.71240000000000003</v>
       </c>
       <c r="E52">
         <v>14.122</v>
       </c>
       <c r="F52">
-        <v>-979.0106</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>-979.01059999999995</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B53">
-        <v>0.2817</v>
+        <v>0.28170000000000001</v>
       </c>
       <c r="C53">
-        <v>0.0447</v>
+        <v>4.4699999999999997E-2</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -1658,30 +1683,30 @@
         <v>6.5206</v>
       </c>
       <c r="F53">
-        <v>-6.2389</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-6.2389000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B54">
-        <v>0.2948</v>
+        <v>0.29480000000000001</v>
       </c>
       <c r="C54">
-        <v>0.0457</v>
+        <v>4.5699999999999998E-2</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54">
-        <v>6.2823</v>
+        <v>6.2823000000000002</v>
       </c>
       <c r="F54">
-        <v>-5.9875</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-5.9874999999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>58</v>
       </c>
@@ -1689,10 +1714,10 @@
         <v>-108.2976</v>
       </c>
       <c r="C55">
-        <v>292.0524</v>
+        <v>292.05239999999998</v>
       </c>
       <c r="D55">
-        <v>0.7108</v>
+        <v>0.71079999999999999</v>
       </c>
       <c r="E55">
         <v>-1.6049</v>
@@ -1701,47 +1726,47 @@
         <v>-106.6927</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B56">
-        <v>-8.0929</v>
+        <v>-8.0929000000000002</v>
       </c>
       <c r="C56">
-        <v>0.8365</v>
+        <v>0.83650000000000002</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56">
-        <v>-18.0369</v>
+        <v>-18.036899999999999</v>
       </c>
       <c r="F56">
-        <v>9.944000000000001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>9.9440000000000008</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B57">
-        <v>-1.6558</v>
+        <v>-1.6557999999999999</v>
       </c>
       <c r="C57">
         <v>1.8431</v>
       </c>
       <c r="D57">
-        <v>0.369</v>
+        <v>0.36899999999999999</v>
       </c>
       <c r="E57">
-        <v>-0.6548</v>
+        <v>-0.65480000000000005</v>
       </c>
       <c r="F57">
-        <v>-1.001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-1.0009999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>61</v>
       </c>
@@ -1749,24 +1774,24 @@
         <v>14.8973</v>
       </c>
       <c r="C58">
-        <v>1.8943</v>
+        <v>1.8943000000000001</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58">
-        <v>5.0805</v>
+        <v>5.0804999999999998</v>
       </c>
       <c r="F58">
-        <v>9.816800000000001</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>9.8168000000000006</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B59">
-        <v>10.0201</v>
+        <v>10.020099999999999</v>
       </c>
       <c r="C59">
         <v>1.8384</v>
@@ -1775,13 +1800,13 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>3.8541</v>
+        <v>3.8540999999999999</v>
       </c>
       <c r="F59">
-        <v>6.166</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>6.1660000000000004</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>63</v>
       </c>
@@ -1801,7 +1826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>64</v>
       </c>
@@ -1821,7 +1846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>65</v>
       </c>
@@ -1832,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>2.3E-3</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -1841,12 +1866,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B63">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -1858,10 +1883,10 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>67</v>
       </c>
@@ -1872,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>0.6012999999999999</v>
+        <v>0</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -1881,7 +1906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>68</v>
       </c>
@@ -1895,13 +1920,13 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>3.7655</v>
+        <v>3.7654999999999998</v>
       </c>
       <c r="F65">
-        <v>6.4547</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>6.4546999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>69</v>
       </c>
@@ -1918,7 +1943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>70</v>
       </c>
@@ -1935,12 +1960,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B68">
-        <v>22.8198</v>
+        <v>22.819800000000001</v>
       </c>
       <c r="C68">
         <v>2.0909</v>
@@ -1949,53 +1974,53 @@
         <v>0</v>
       </c>
       <c r="E68">
-        <v>7.1194</v>
+        <v>7.1193999999999997</v>
       </c>
       <c r="F68">
         <v>15.7004</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B69">
-        <v>19.1064</v>
+        <v>19.106400000000001</v>
       </c>
       <c r="C69">
-        <v>1.1466</v>
+        <v>1.1466000000000001</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="E69">
-        <v>9.468500000000001</v>
+        <v>9.4685000000000006</v>
       </c>
       <c r="F69">
-        <v>9.6379</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>9.6379000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B70">
-        <v>-3.1748</v>
+        <v>-3.1747999999999998</v>
       </c>
       <c r="C70">
-        <v>4.9505</v>
+        <v>4.9504999999999999</v>
       </c>
       <c r="D70">
-        <v>0.5213</v>
+        <v>0.52129999999999999</v>
       </c>
       <c r="E70">
-        <v>-0.2733</v>
+        <v>-0.27329999999999999</v>
       </c>
       <c r="F70">
         <v>-2.9015</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>74</v>
       </c>
@@ -2003,53 +2028,53 @@
         <v>-0.376</v>
       </c>
       <c r="C71">
-        <v>4.3408</v>
+        <v>4.3407999999999998</v>
       </c>
       <c r="D71">
-        <v>0.931</v>
+        <v>0.93100000000000005</v>
       </c>
       <c r="E71">
-        <v>-0.013</v>
+        <v>-1.2999999999999999E-2</v>
       </c>
       <c r="F71">
-        <v>-0.363</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.36299999999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B72">
-        <v>-4.2931</v>
+        <v>-4.2930999999999999</v>
       </c>
       <c r="C72">
         <v>1.1029</v>
       </c>
       <c r="D72">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="E72">
         <v>-2.0122</v>
       </c>
       <c r="F72">
-        <v>-2.2809</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-2.2808999999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B73">
-        <v>-2.3783</v>
+        <v>-2.3782999999999999</v>
       </c>
       <c r="C73">
-        <v>1.4531</v>
+        <v>1.4531000000000001</v>
       </c>
       <c r="D73">
         <v>0.1017</v>
       </c>
       <c r="E73">
-        <v>-0.8623</v>
+        <v>-0.86229999999999996</v>
       </c>
       <c r="F73">
         <v>-1.516</v>
@@ -2061,14 +2086,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2085,641 +2119,647 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="B2">
-        <v>44910.9544</v>
+        <v>-5503.5806000000002</v>
       </c>
       <c r="C2">
-        <v>66090.8256</v>
+        <v>8195.1159000000007</v>
       </c>
       <c r="D2">
-        <v>0.4968</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.50190000000000001</v>
+      </c>
+      <c r="E2">
+        <v>22.146100000000001</v>
+      </c>
+      <c r="F2">
+        <v>-5525.7267000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3">
+        <v>-2201.5765000000001</v>
+      </c>
+      <c r="C3">
+        <v>3274.6680999999999</v>
+      </c>
+      <c r="D3">
+        <v>0.50139999999999996</v>
+      </c>
+      <c r="E3">
+        <v>17.004799999999999</v>
+      </c>
+      <c r="F3">
+        <v>-2218.5812999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4">
+        <v>11.5025</v>
+      </c>
+      <c r="C4">
+        <v>0.82079999999999997</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>12.7217</v>
+      </c>
+      <c r="F4">
+        <v>-1.2192000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5">
+        <v>5.2708000000000004</v>
+      </c>
+      <c r="C5">
+        <v>0.51959999999999995</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>7.8833000000000002</v>
+      </c>
+      <c r="F5">
+        <v>-2.6124999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6">
+        <v>0.34370000000000001</v>
+      </c>
+      <c r="C6">
+        <v>5.4100000000000002E-2</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>7.6504000000000003</v>
+      </c>
+      <c r="F6">
+        <v>-7.3067000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7">
+        <v>24.035399999999999</v>
+      </c>
+      <c r="C7">
+        <v>2.5337999999999998</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>7.3399000000000001</v>
+      </c>
+      <c r="F7">
+        <v>16.695499999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8">
+        <v>7.7111000000000001</v>
+      </c>
+      <c r="C8">
+        <v>0.68089999999999995</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>7.2359</v>
+      </c>
+      <c r="F8">
+        <v>0.47520000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9">
+        <v>0.30719999999999997</v>
+      </c>
+      <c r="C9">
+        <v>5.4699999999999999E-2</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>6.1947000000000001</v>
+      </c>
+      <c r="F9">
+        <v>-5.8875000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10">
+        <v>17.9558</v>
+      </c>
+      <c r="C10">
+        <v>2.395</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>6.0651999999999999</v>
+      </c>
+      <c r="F10">
+        <v>11.890599999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11">
+        <v>6.0853999999999999</v>
+      </c>
+      <c r="C11">
+        <v>0.81510000000000005</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>5.9419000000000004</v>
+      </c>
+      <c r="F11">
+        <v>0.14349999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12">
+        <v>5.8272000000000004</v>
+      </c>
+      <c r="C12">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>5.8869999999999996</v>
+      </c>
+      <c r="F12">
+        <v>-5.9799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>0.28210000000000002</v>
+      </c>
+      <c r="C13">
+        <v>3.8800000000000001E-2</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>4.7487000000000004</v>
+      </c>
+      <c r="F13">
+        <v>-4.4665999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>7.9066000000000001</v>
+      </c>
+      <c r="C14">
+        <v>1.8287</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>4.6901000000000002</v>
+      </c>
+      <c r="F14">
+        <v>3.2164999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15">
+        <v>3.9504000000000001</v>
+      </c>
+      <c r="C15">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>3.9458000000000002</v>
+      </c>
+      <c r="F15">
+        <v>4.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16">
+        <v>9.8941999999999997</v>
+      </c>
+      <c r="C16">
+        <v>2.3557999999999999</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>3.6196000000000002</v>
+      </c>
+      <c r="F16">
+        <v>6.2746000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17">
+        <v>4.0266999999999999</v>
+      </c>
+      <c r="C17">
+        <v>0.8327</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>3.5693999999999999</v>
+      </c>
+      <c r="F17">
+        <v>0.45729999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>2.0522</v>
+      </c>
+      <c r="C18">
+        <v>0.41010000000000002</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>3.3563000000000001</v>
+      </c>
+      <c r="F18">
+        <v>-1.3041</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19">
+        <v>1.3426</v>
+      </c>
+      <c r="C19">
+        <v>0.434</v>
+      </c>
+      <c r="D19">
+        <v>2E-3</v>
+      </c>
+      <c r="E19">
+        <v>3.0569999999999999</v>
+      </c>
+      <c r="F19">
+        <v>-1.7143999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20">
+        <v>2.4022999999999999</v>
+      </c>
+      <c r="C20">
+        <v>0.71289999999999998</v>
+      </c>
+      <c r="D20">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="E20">
+        <v>2.3687</v>
+      </c>
+      <c r="F20">
+        <v>3.3599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21">
+        <v>2.4577</v>
+      </c>
+      <c r="C21">
+        <v>0.88529999999999998</v>
+      </c>
+      <c r="D21">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="E21">
+        <v>2.2623000000000002</v>
+      </c>
+      <c r="F21">
+        <v>0.19539999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22">
+        <v>6.4368999999999996</v>
+      </c>
+      <c r="C22">
+        <v>2.3006000000000002</v>
+      </c>
+      <c r="D22">
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="E22">
+        <v>2.0465</v>
+      </c>
+      <c r="F22">
+        <v>4.3903999999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23">
+        <v>1.0011000000000001</v>
+      </c>
+      <c r="C23">
+        <v>0.48959999999999998</v>
+      </c>
+      <c r="D23">
+        <v>4.0899999999999999E-2</v>
+      </c>
+      <c r="E23">
+        <v>2.0171000000000001</v>
+      </c>
+      <c r="F23">
+        <v>-1.016</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24">
+        <v>2.2959999999999998</v>
+      </c>
+      <c r="C24">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="D24">
+        <v>3.3E-3</v>
+      </c>
+      <c r="E24">
+        <v>1.9834000000000001</v>
+      </c>
+      <c r="F24">
+        <v>0.31259999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25">
+        <v>2.1251000000000002</v>
+      </c>
+      <c r="C25">
+        <v>0.79649999999999999</v>
+      </c>
+      <c r="D25">
+        <v>7.6E-3</v>
+      </c>
+      <c r="E25">
+        <v>1.9388000000000001</v>
+      </c>
+      <c r="F25">
+        <v>0.18629999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26">
+        <v>5.3499999999999999E-2</v>
+      </c>
+      <c r="C26">
+        <v>3.5099999999999999E-2</v>
+      </c>
+      <c r="D26">
+        <v>0.1273</v>
+      </c>
+      <c r="E26">
+        <v>1.6025</v>
+      </c>
+      <c r="F26">
+        <v>-1.5489999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27">
+        <v>1.3567</v>
+      </c>
+      <c r="C27">
+        <v>0.74709999999999999</v>
+      </c>
+      <c r="D27">
+        <v>6.9400000000000003E-2</v>
+      </c>
+      <c r="E27">
+        <v>1.2110000000000001</v>
+      </c>
+      <c r="F27">
+        <v>0.1457</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28">
+        <v>0.96609999999999996</v>
+      </c>
+      <c r="C28">
+        <v>0.53220000000000001</v>
+      </c>
+      <c r="D28">
+        <v>6.9500000000000006E-2</v>
+      </c>
+      <c r="E28">
+        <v>1.1830000000000001</v>
+      </c>
+      <c r="F28">
+        <v>-0.21690000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29">
+        <v>2.3860999999999999</v>
+      </c>
+      <c r="C29">
+        <v>1.42</v>
+      </c>
+      <c r="D29">
+        <v>9.2899999999999996E-2</v>
+      </c>
+      <c r="E29">
+        <v>1.0084</v>
+      </c>
+      <c r="F29">
+        <v>1.3776999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30">
+        <v>2.6227</v>
+      </c>
+      <c r="C30">
+        <v>2.3567</v>
+      </c>
+      <c r="D30">
+        <v>0.26579999999999998</v>
+      </c>
+      <c r="E30">
+        <v>0.81620000000000004</v>
+      </c>
+      <c r="F30">
+        <v>1.8065</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
-        <v>2.7896</v>
-      </c>
-      <c r="C3">
-        <v>2.3561</v>
-      </c>
-      <c r="D3">
+      <c r="B31">
+        <v>2.7896000000000001</v>
+      </c>
+      <c r="C31">
+        <v>2.3561000000000001</v>
+      </c>
+      <c r="D31">
         <v>0.2364</v>
       </c>
-      <c r="E3">
-        <v>0.7788</v>
-      </c>
-      <c r="F3">
-        <v>2.0108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>7.9066</v>
-      </c>
-      <c r="C4">
-        <v>1.8287</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>4.6901</v>
-      </c>
-      <c r="F4">
-        <v>3.2165</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>0.0535</v>
-      </c>
-      <c r="C5">
-        <v>0.0351</v>
-      </c>
-      <c r="D5">
-        <v>0.1273</v>
-      </c>
-      <c r="E5">
-        <v>1.6025</v>
-      </c>
-      <c r="F5">
-        <v>-1.549</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>-23.1116</v>
-      </c>
-      <c r="C6">
-        <v>2.8877</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>-7.3966</v>
-      </c>
-      <c r="F6">
-        <v>-15.715</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>-13.7318</v>
-      </c>
-      <c r="C7">
-        <v>2.5821</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>-3.407</v>
-      </c>
-      <c r="F7">
-        <v>-10.3248</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>-4.6862</v>
-      </c>
-      <c r="C8">
-        <v>1.4824</v>
-      </c>
-      <c r="D8">
-        <v>0.0016</v>
-      </c>
-      <c r="E8">
-        <v>-2.0511</v>
-      </c>
-      <c r="F8">
-        <v>-2.6351</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9">
-        <v>-2.9654</v>
-      </c>
-      <c r="C9">
-        <v>0.1943</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>-10.4846</v>
-      </c>
-      <c r="F9">
-        <v>7.5192</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10">
-        <v>-1.1663</v>
-      </c>
-      <c r="C10">
-        <v>0.2494</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>-3.4888</v>
-      </c>
-      <c r="F10">
-        <v>2.3225</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11">
-        <v>-3.2527</v>
-      </c>
-      <c r="C11">
-        <v>0.2299</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>-9.587199999999999</v>
-      </c>
-      <c r="F11">
-        <v>6.3345</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12">
-        <v>-0.1872</v>
-      </c>
-      <c r="C12">
-        <v>0.1983</v>
-      </c>
-      <c r="D12">
-        <v>0.3451</v>
-      </c>
-      <c r="E12">
-        <v>-0.5927</v>
-      </c>
-      <c r="F12">
-        <v>0.4055</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13">
-        <v>2.0522</v>
-      </c>
-      <c r="C13">
-        <v>0.4101</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>3.3563</v>
-      </c>
-      <c r="F13">
-        <v>-1.3041</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1" t="s">
+      <c r="E31">
+        <v>0.77880000000000005</v>
+      </c>
+      <c r="F31">
+        <v>2.0108000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32">
+        <v>0.58809999999999996</v>
+      </c>
+      <c r="C32">
+        <v>0.75939999999999996</v>
+      </c>
+      <c r="D32">
+        <v>0.43869999999999998</v>
+      </c>
+      <c r="E32">
+        <v>0.45710000000000001</v>
+      </c>
+      <c r="F32">
+        <v>0.13100000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B14">
-        <v>0.7307</v>
-      </c>
-      <c r="C14">
+      <c r="B33">
+        <v>0.73070000000000002</v>
+      </c>
+      <c r="C33">
         <v>2.0463</v>
       </c>
-      <c r="D14">
-        <v>0.721</v>
-      </c>
-      <c r="E14">
-        <v>0.1937</v>
-      </c>
-      <c r="F14">
-        <v>0.537</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15">
-        <v>6.4369</v>
-      </c>
-      <c r="C15">
-        <v>2.3006</v>
-      </c>
-      <c r="D15">
-        <v>0.0051</v>
-      </c>
-      <c r="E15">
-        <v>2.0465</v>
-      </c>
-      <c r="F15">
-        <v>4.3904</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16">
-        <v>-8.386900000000001</v>
-      </c>
-      <c r="C16">
-        <v>3.0941</v>
-      </c>
-      <c r="D16">
-        <v>0.0067</v>
-      </c>
-      <c r="E16">
-        <v>-1.6824</v>
-      </c>
-      <c r="F16">
-        <v>-6.7045</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17">
-        <v>0.9661</v>
-      </c>
-      <c r="C17">
-        <v>0.5322</v>
-      </c>
-      <c r="D17">
-        <v>0.06950000000000001</v>
-      </c>
-      <c r="E17">
-        <v>1.183</v>
-      </c>
-      <c r="F17">
-        <v>-0.2169</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18">
-        <v>0.2821</v>
-      </c>
-      <c r="C18">
-        <v>0.0388</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>4.7487</v>
-      </c>
-      <c r="F18">
-        <v>-4.4666</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19">
-        <v>0.5881</v>
-      </c>
-      <c r="C19">
-        <v>0.7594</v>
-      </c>
-      <c r="D19">
-        <v>0.4387</v>
-      </c>
-      <c r="E19">
-        <v>0.4571</v>
-      </c>
-      <c r="F19">
-        <v>0.131</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20">
-        <v>1.3567</v>
-      </c>
-      <c r="C20">
-        <v>0.7471</v>
-      </c>
-      <c r="D20">
-        <v>0.0694</v>
-      </c>
-      <c r="E20">
-        <v>1.211</v>
-      </c>
-      <c r="F20">
-        <v>0.1457</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21">
-        <v>-0.4385</v>
-      </c>
-      <c r="C21">
-        <v>0.7409</v>
-      </c>
-      <c r="D21">
-        <v>0.5538999999999999</v>
-      </c>
-      <c r="E21">
-        <v>-0.3846</v>
-      </c>
-      <c r="F21">
-        <v>-0.0539</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22">
-        <v>-3.7311</v>
-      </c>
-      <c r="C22">
-        <v>0.7179</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>-3.4889</v>
-      </c>
-      <c r="F22">
-        <v>-0.2422</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23">
-        <v>-3.9391</v>
-      </c>
-      <c r="C23">
-        <v>0.7288</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>-3.5714</v>
-      </c>
-      <c r="F23">
-        <v>-0.3677</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24">
-        <v>2.4023</v>
-      </c>
-      <c r="C24">
-        <v>0.7129</v>
-      </c>
-      <c r="D24">
-        <v>0.0008</v>
-      </c>
-      <c r="E24">
-        <v>2.3687</v>
-      </c>
-      <c r="F24">
-        <v>0.0336</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25">
-        <v>5.8272</v>
-      </c>
-      <c r="C25">
-        <v>0.737</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>5.887</v>
-      </c>
-      <c r="F25">
-        <v>-0.0598</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26">
-        <v>-0.2346</v>
-      </c>
-      <c r="C26">
-        <v>0.716</v>
-      </c>
-      <c r="D26">
-        <v>0.7432</v>
-      </c>
-      <c r="E26">
-        <v>-0.0602</v>
-      </c>
-      <c r="F26">
-        <v>-0.1744</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27">
-        <v>7.7111</v>
-      </c>
-      <c r="C27">
-        <v>0.6808999999999999</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>7.2359</v>
-      </c>
-      <c r="F27">
-        <v>0.4752</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28">
-        <v>-4.5781</v>
-      </c>
-      <c r="C28">
-        <v>0.7136</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>-4.2438</v>
-      </c>
-      <c r="F28">
-        <v>-0.3343</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29">
-        <v>-2.46</v>
-      </c>
-      <c r="C29">
-        <v>0.6495</v>
-      </c>
-      <c r="D29">
-        <v>0.0002</v>
-      </c>
-      <c r="E29">
-        <v>-2.4498</v>
-      </c>
-      <c r="F29">
-        <v>-0.0102</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30">
-        <v>2.296</v>
-      </c>
-      <c r="C30">
-        <v>0.781</v>
-      </c>
-      <c r="D30">
-        <v>0.0033</v>
-      </c>
-      <c r="E30">
-        <v>1.9834</v>
-      </c>
-      <c r="F30">
-        <v>0.3126</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31">
-        <v>-0.4221</v>
-      </c>
-      <c r="C31">
-        <v>0.6704</v>
-      </c>
-      <c r="D31">
-        <v>0.529</v>
-      </c>
-      <c r="E31">
-        <v>-0.3726</v>
-      </c>
-      <c r="F31">
-        <v>-0.0495</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32">
-        <v>6.0854</v>
-      </c>
-      <c r="C32">
-        <v>0.8151</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>5.9419</v>
-      </c>
-      <c r="F32">
-        <v>0.1435</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33">
-        <v>-5.0765</v>
-      </c>
-      <c r="C33">
-        <v>0.8363</v>
-      </c>
       <c r="D33">
-        <v>0</v>
+        <v>0.72099999999999997</v>
       </c>
       <c r="E33">
-        <v>-5.073</v>
+        <v>0.19370000000000001</v>
       </c>
       <c r="F33">
-        <v>-0.0035</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.53700000000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>37</v>
       </c>
@@ -2727,10 +2767,10 @@
         <v>0.1653</v>
       </c>
       <c r="C34">
-        <v>0.8208</v>
+        <v>0.82079999999999997</v>
       </c>
       <c r="D34">
-        <v>0.8404</v>
+        <v>0.84040000000000004</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2739,794 +2779,795 @@
         <v>0.1653</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35">
+        <v>13045.474399999999</v>
+      </c>
+      <c r="C35">
+        <v>19349.379400000002</v>
+      </c>
+      <c r="D35">
+        <v>0.50019999999999998</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>13045.474399999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>5.8200000000000002E-2</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41">
+        <v>0.38479999999999998</v>
+      </c>
+      <c r="C41">
+        <v>2.4462999999999999</v>
+      </c>
+      <c r="D41">
+        <v>0.875</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0.38479999999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B44">
+        <v>-0.83260000000000001</v>
+      </c>
+      <c r="C44">
+        <v>5.7386999999999997</v>
+      </c>
+      <c r="D44">
+        <v>0.88460000000000005</v>
+      </c>
+      <c r="E44">
+        <v>-2.7699999999999999E-2</v>
+      </c>
+      <c r="F44">
+        <v>-0.80489999999999995</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B45">
+        <v>-0.2346</v>
+      </c>
+      <c r="C45">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="D45">
+        <v>0.74319999999999997</v>
+      </c>
+      <c r="E45">
+        <v>-6.0199999999999997E-2</v>
+      </c>
+      <c r="F45">
+        <v>-0.1744</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46">
+        <v>-0.42209999999999998</v>
+      </c>
+      <c r="C46">
+        <v>0.6704</v>
+      </c>
+      <c r="D46">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="E46">
+        <v>-0.37259999999999999</v>
+      </c>
+      <c r="F46">
+        <v>-4.9500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47">
+        <v>-0.4385</v>
+      </c>
+      <c r="C47">
+        <v>0.7409</v>
+      </c>
+      <c r="D47">
+        <v>0.55389999999999995</v>
+      </c>
+      <c r="E47">
+        <v>-0.3846</v>
+      </c>
+      <c r="F47">
+        <v>-5.3900000000000003E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B48">
+        <v>-1.3732</v>
+      </c>
+      <c r="C48">
+        <v>1.7918000000000001</v>
+      </c>
+      <c r="D48">
+        <v>0.44350000000000001</v>
+      </c>
+      <c r="E48">
+        <v>-0.4451</v>
+      </c>
+      <c r="F48">
+        <v>-0.92810000000000004</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49">
+        <v>-0.18720000000000001</v>
+      </c>
+      <c r="C49">
+        <v>0.1983</v>
+      </c>
+      <c r="D49">
+        <v>0.34510000000000002</v>
+      </c>
+      <c r="E49">
+        <v>-0.5927</v>
+      </c>
+      <c r="F49">
+        <v>0.40550000000000003</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B50">
+        <v>-8.6830999999999996</v>
+      </c>
+      <c r="C50">
+        <v>6.0208000000000004</v>
+      </c>
+      <c r="D50">
+        <v>0.14929999999999999</v>
+      </c>
+      <c r="E50">
+        <v>-0.76160000000000005</v>
+      </c>
+      <c r="F50">
+        <v>-7.9215</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B51">
+        <v>-1.0256000000000001</v>
+      </c>
+      <c r="C51">
+        <v>0.82679999999999998</v>
+      </c>
+      <c r="D51">
+        <v>0.21479999999999999</v>
+      </c>
+      <c r="E51">
+        <v>-0.8216</v>
+      </c>
+      <c r="F51">
+        <v>-0.20399999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52">
+        <v>-246.417</v>
+      </c>
+      <c r="C52">
+        <v>365.34350000000001</v>
+      </c>
+      <c r="D52">
+        <v>0.5</v>
+      </c>
+      <c r="E52">
+        <v>-1.1214999999999999</v>
+      </c>
+      <c r="F52">
+        <v>-245.2955</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B53">
+        <v>-8.3869000000000007</v>
+      </c>
+      <c r="C53">
+        <v>3.0941000000000001</v>
+      </c>
+      <c r="D53">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="E53">
+        <v>-1.6823999999999999</v>
+      </c>
+      <c r="F53">
+        <v>-6.7045000000000003</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B54">
+        <v>-3.9245999999999999</v>
+      </c>
+      <c r="C54">
+        <v>1.38</v>
+      </c>
+      <c r="D54">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="E54">
+        <v>-1.7983</v>
+      </c>
+      <c r="F54">
+        <v>-2.1263000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55">
+        <v>-4.6862000000000004</v>
+      </c>
+      <c r="C55">
+        <v>1.4823999999999999</v>
+      </c>
+      <c r="D55">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="E55">
+        <v>-2.0510999999999999</v>
+      </c>
+      <c r="F55">
+        <v>-2.6351</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B56">
+        <v>-2.46</v>
+      </c>
+      <c r="C56">
+        <v>0.64949999999999997</v>
+      </c>
+      <c r="D56">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E56">
+        <v>-2.4498000000000002</v>
+      </c>
+      <c r="F56">
+        <v>-1.0200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B57">
+        <v>-2.6918000000000002</v>
+      </c>
+      <c r="C57">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="D57">
+        <v>1E-4</v>
+      </c>
+      <c r="E57">
+        <v>-2.7829000000000002</v>
+      </c>
+      <c r="F57">
+        <v>9.11E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58">
+        <v>-13.7318</v>
+      </c>
+      <c r="C58">
+        <v>2.5821000000000001</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>-3.407</v>
+      </c>
+      <c r="F58">
+        <v>-10.3248</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59">
+        <v>-1.1662999999999999</v>
+      </c>
+      <c r="C59">
+        <v>0.24940000000000001</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>-3.4887999999999999</v>
+      </c>
+      <c r="F59">
+        <v>2.3224999999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B60">
+        <v>-3.7311000000000001</v>
+      </c>
+      <c r="C60">
+        <v>0.71789999999999998</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>-3.4889000000000001</v>
+      </c>
+      <c r="F60">
+        <v>-0.2422</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B35">
-        <v>-3.5847</v>
-      </c>
-      <c r="C35">
-        <v>0.7917999999999999</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
+      <c r="B61">
+        <v>-3.5847000000000002</v>
+      </c>
+      <c r="C61">
+        <v>0.79179999999999995</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
         <v>-3.5179</v>
       </c>
-      <c r="F35">
-        <v>-0.0668</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36">
-        <v>11.5025</v>
-      </c>
-      <c r="C36">
-        <v>0.8208</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>12.7217</v>
-      </c>
-      <c r="F36">
-        <v>-1.2192</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="1" t="s">
+      <c r="F61">
+        <v>-6.6799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B62">
+        <v>-3.9390999999999998</v>
+      </c>
+      <c r="C62">
+        <v>0.7288</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>-3.5714000000000001</v>
+      </c>
+      <c r="F62">
+        <v>-0.36770000000000003</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B63">
+        <v>-4.5781000000000001</v>
+      </c>
+      <c r="C63">
+        <v>0.71360000000000001</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>-4.2438000000000002</v>
+      </c>
+      <c r="F63">
+        <v>-0.33429999999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B64">
+        <v>-5.0765000000000002</v>
+      </c>
+      <c r="C64">
+        <v>0.83630000000000004</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>-5.0730000000000004</v>
+      </c>
+      <c r="F64">
+        <v>-3.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B65">
+        <v>-5.5697999999999999</v>
+      </c>
+      <c r="C65">
+        <v>0.84760000000000002</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>-5.3598999999999997</v>
+      </c>
+      <c r="F65">
+        <v>-0.2099</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B66">
+        <v>-5.9387999999999996</v>
+      </c>
+      <c r="C66">
+        <v>1.3021</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>-5.8573000000000004</v>
+      </c>
+      <c r="F66">
+        <v>-8.1500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B37">
-        <v>-7.1022</v>
-      </c>
-      <c r="C37">
-        <v>0.9559</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>-6.6596</v>
-      </c>
-      <c r="F37">
-        <v>-0.4426</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38">
-        <v>5.2708</v>
-      </c>
-      <c r="C38">
-        <v>0.5196</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>7.8833</v>
-      </c>
-      <c r="F38">
-        <v>-2.6125</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39">
-        <v>-2.6918</v>
-      </c>
-      <c r="C39">
-        <v>0.679</v>
-      </c>
-      <c r="D39">
-        <v>0.0001</v>
-      </c>
-      <c r="E39">
-        <v>-2.7829</v>
-      </c>
-      <c r="F39">
-        <v>0.0911</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40">
-        <v>3.9504</v>
-      </c>
-      <c r="C40">
-        <v>0.766</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>3.9458</v>
-      </c>
-      <c r="F40">
-        <v>0.0046</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41">
-        <v>-1.0256</v>
-      </c>
-      <c r="C41">
-        <v>0.8268</v>
-      </c>
-      <c r="D41">
-        <v>0.2148</v>
-      </c>
-      <c r="E41">
-        <v>-0.8216</v>
-      </c>
-      <c r="F41">
-        <v>-0.204</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42">
-        <v>-5.5698</v>
-      </c>
-      <c r="C42">
-        <v>0.8476</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>-5.3599</v>
-      </c>
-      <c r="F42">
-        <v>-0.2099</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B43">
-        <v>2.1251</v>
-      </c>
-      <c r="C43">
-        <v>0.7965</v>
-      </c>
-      <c r="D43">
-        <v>0.0076</v>
-      </c>
-      <c r="E43">
-        <v>1.9388</v>
-      </c>
-      <c r="F43">
-        <v>0.1863</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="1" t="s">
+      <c r="B67">
+        <v>-7.1021999999999998</v>
+      </c>
+      <c r="C67">
+        <v>0.95589999999999997</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>-6.6596000000000002</v>
+      </c>
+      <c r="F67">
+        <v>-0.44259999999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68">
+        <v>-23.111599999999999</v>
+      </c>
+      <c r="C68">
+        <v>2.8877000000000002</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>-7.3966000000000003</v>
+      </c>
+      <c r="F68">
+        <v>-15.715</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B69">
+        <v>-3.2526999999999999</v>
+      </c>
+      <c r="C69">
+        <v>0.22989999999999999</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>-9.5871999999999993</v>
+      </c>
+      <c r="F69">
+        <v>6.3345000000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B44">
-        <v>-9.8126</v>
-      </c>
-      <c r="C44">
-        <v>0.6446</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <v>-10.1415</v>
-      </c>
-      <c r="F44">
-        <v>0.3289</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B45">
-        <v>2.4577</v>
-      </c>
-      <c r="C45">
-        <v>0.8853</v>
-      </c>
-      <c r="D45">
-        <v>0.0055</v>
-      </c>
-      <c r="E45">
-        <v>2.2623</v>
-      </c>
-      <c r="F45">
-        <v>0.1954</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B46">
-        <v>4.0267</v>
-      </c>
-      <c r="C46">
-        <v>0.8327</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <v>3.5694</v>
-      </c>
-      <c r="F46">
-        <v>0.4573</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B47">
-        <v>1.0011</v>
-      </c>
-      <c r="C47">
-        <v>0.4896</v>
-      </c>
-      <c r="D47">
-        <v>0.0409</v>
-      </c>
-      <c r="E47">
-        <v>2.0171</v>
-      </c>
-      <c r="F47">
-        <v>-1.016</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B48">
-        <v>-5.9388</v>
-      </c>
-      <c r="C48">
-        <v>1.3021</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>-5.8573</v>
-      </c>
-      <c r="F48">
-        <v>-0.0815</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B49">
-        <v>-5503.5806</v>
-      </c>
-      <c r="C49">
-        <v>8195.115900000001</v>
-      </c>
-      <c r="D49">
-        <v>0.5019</v>
-      </c>
-      <c r="E49">
-        <v>22.1461</v>
-      </c>
-      <c r="F49">
-        <v>-5525.7267</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B50">
-        <v>13045.4744</v>
-      </c>
-      <c r="C50">
-        <v>19349.3794</v>
-      </c>
-      <c r="D50">
-        <v>0.5002</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>13045.4744</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B51">
-        <v>1.3426</v>
-      </c>
-      <c r="C51">
-        <v>0.434</v>
-      </c>
-      <c r="D51">
-        <v>0.002</v>
-      </c>
-      <c r="E51">
-        <v>3.057</v>
-      </c>
-      <c r="F51">
-        <v>-1.7144</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B52">
-        <v>-2201.5765</v>
-      </c>
-      <c r="C52">
-        <v>3274.6681</v>
-      </c>
-      <c r="D52">
-        <v>0.5014</v>
-      </c>
-      <c r="E52">
-        <v>17.0048</v>
-      </c>
-      <c r="F52">
-        <v>-2218.5813</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B53">
-        <v>0.3437</v>
-      </c>
-      <c r="C53">
-        <v>0.0541</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>7.6504</v>
-      </c>
-      <c r="F53">
-        <v>-7.3067</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B54">
-        <v>0.3072</v>
-      </c>
-      <c r="C54">
-        <v>0.0547</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>6.1947</v>
-      </c>
-      <c r="F54">
-        <v>-5.8875</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B55">
-        <v>-246.417</v>
-      </c>
-      <c r="C55">
-        <v>365.3435</v>
-      </c>
-      <c r="D55">
-        <v>0.5</v>
-      </c>
-      <c r="E55">
-        <v>-1.1215</v>
-      </c>
-      <c r="F55">
-        <v>-245.2955</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="1" t="s">
+      <c r="B70">
+        <v>-9.8125999999999998</v>
+      </c>
+      <c r="C70">
+        <v>0.64459999999999995</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>-10.141500000000001</v>
+      </c>
+      <c r="F70">
+        <v>0.32890000000000003</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B71">
+        <v>-2.9653999999999998</v>
+      </c>
+      <c r="C71">
+        <v>0.1943</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>-10.4846</v>
+      </c>
+      <c r="F71">
+        <v>7.5191999999999997</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B56">
-        <v>-9.688700000000001</v>
-      </c>
-      <c r="C56">
-        <v>1.0353</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56">
-        <v>-20.5952</v>
-      </c>
-      <c r="F56">
-        <v>10.9065</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B57">
-        <v>2.6227</v>
-      </c>
-      <c r="C57">
-        <v>2.3567</v>
-      </c>
-      <c r="D57">
-        <v>0.2658</v>
-      </c>
-      <c r="E57">
-        <v>0.8162</v>
-      </c>
-      <c r="F57">
-        <v>1.8065</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B58">
-        <v>17.9558</v>
-      </c>
-      <c r="C58">
-        <v>2.395</v>
-      </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="E58">
-        <v>6.0652</v>
-      </c>
-      <c r="F58">
-        <v>11.8906</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B59">
-        <v>9.8942</v>
-      </c>
-      <c r="C59">
-        <v>2.3558</v>
-      </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="E59">
-        <v>3.6196</v>
-      </c>
-      <c r="F59">
-        <v>6.2746</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B60">
-        <v>0</v>
-      </c>
-      <c r="C60">
-        <v>0</v>
-      </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B61">
-        <v>0</v>
-      </c>
-      <c r="C61">
-        <v>0</v>
-      </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B62">
-        <v>0</v>
-      </c>
-      <c r="C62">
-        <v>0</v>
-      </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B63">
-        <v>-0</v>
-      </c>
-      <c r="C63">
-        <v>0</v>
-      </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B64">
-        <v>-0</v>
-      </c>
-      <c r="C64">
-        <v>0</v>
-      </c>
-      <c r="D64">
-        <v>0.1435</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="F64">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B65">
-        <v>0.3848</v>
-      </c>
-      <c r="C65">
-        <v>2.4463</v>
-      </c>
-      <c r="D65">
-        <v>0.875</v>
-      </c>
-      <c r="E65">
-        <v>-0</v>
-      </c>
-      <c r="F65">
-        <v>0.3848</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B66">
-        <v>0</v>
-      </c>
-      <c r="C66">
-        <v>0</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B67">
-        <v>0</v>
-      </c>
-      <c r="C67">
-        <v>0</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B68">
-        <v>24.0354</v>
-      </c>
-      <c r="C68">
-        <v>2.5338</v>
-      </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
-      <c r="E68">
-        <v>7.3399</v>
-      </c>
-      <c r="F68">
-        <v>16.6955</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B69">
-        <v>2.3861</v>
-      </c>
-      <c r="C69">
-        <v>1.42</v>
-      </c>
-      <c r="D69">
-        <v>0.0929</v>
-      </c>
-      <c r="E69">
-        <v>1.0084</v>
-      </c>
-      <c r="F69">
-        <v>1.3777</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B70">
-        <v>-8.6831</v>
-      </c>
-      <c r="C70">
-        <v>6.0208</v>
-      </c>
-      <c r="D70">
-        <v>0.1493</v>
-      </c>
-      <c r="E70">
-        <v>-0.7616000000000001</v>
-      </c>
-      <c r="F70">
-        <v>-7.9215</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B71">
-        <v>-0.8326</v>
-      </c>
-      <c r="C71">
-        <v>5.7387</v>
-      </c>
-      <c r="D71">
-        <v>0.8846000000000001</v>
-      </c>
-      <c r="E71">
-        <v>-0.0277</v>
-      </c>
-      <c r="F71">
-        <v>-0.8048999999999999</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="B72">
-        <v>-3.9246</v>
+        <v>-9.6887000000000008</v>
       </c>
       <c r="C72">
-        <v>1.38</v>
+        <v>1.0353000000000001</v>
       </c>
       <c r="D72">
-        <v>0.0045</v>
+        <v>0</v>
       </c>
       <c r="E72">
-        <v>-1.7983</v>
+        <v>-20.595199999999998</v>
       </c>
       <c r="F72">
-        <v>-2.1263</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>10.906499999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="B73">
-        <v>-1.3732</v>
+        <v>44910.954400000002</v>
       </c>
       <c r="C73">
-        <v>1.7918</v>
+        <v>66090.825599999996</v>
       </c>
       <c r="D73">
-        <v>0.4435</v>
-      </c>
-      <c r="E73">
-        <v>-0.4451</v>
-      </c>
-      <c r="F73">
-        <v>-0.9281</v>
+        <v>0.49680000000000002</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F73">
+    <sortState ref="A2:F73">
+      <sortCondition descending="1" ref="E1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3543,7 +3584,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -3551,13 +3592,13 @@
         <v>8622.3197</v>
       </c>
       <c r="C2">
-        <v>62930.3444</v>
+        <v>62930.344400000002</v>
       </c>
       <c r="D2">
-        <v>0.891</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.89100000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -3565,64 +3606,64 @@
         <v>4.5709</v>
       </c>
       <c r="C3">
-        <v>2.2815</v>
+        <v>2.2814999999999999</v>
       </c>
       <c r="D3">
-        <v>0.0451</v>
+        <v>4.5100000000000001E-2</v>
       </c>
       <c r="E3">
         <v>1.3184</v>
       </c>
       <c r="F3">
-        <v>3.2525</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>3.2524999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B4">
-        <v>6.3926</v>
+        <v>6.3925999999999998</v>
       </c>
       <c r="C4">
         <v>1.7805</v>
       </c>
       <c r="D4">
-        <v>0.0003</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="E4">
-        <v>3.7251</v>
+        <v>3.7250999999999999</v>
       </c>
       <c r="F4">
         <v>2.6675</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0.0555</v>
+        <v>5.5500000000000001E-2</v>
       </c>
       <c r="C5">
-        <v>0.0336</v>
+        <v>3.3599999999999998E-2</v>
       </c>
       <c r="D5">
-        <v>0.0985</v>
+        <v>9.8500000000000004E-2</v>
       </c>
       <c r="E5">
         <v>1.7032</v>
       </c>
       <c r="F5">
-        <v>-1.6477</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>-1.6476999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6">
-        <v>-22.7675</v>
+        <v>-22.767499999999998</v>
       </c>
       <c r="C6">
         <v>2.7216</v>
@@ -3631,44 +3672,44 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>-7.3104</v>
+        <v>-7.3103999999999996</v>
       </c>
       <c r="F6">
-        <v>-15.4571</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-15.457100000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7">
-        <v>-9.310600000000001</v>
+        <v>-9.3106000000000009</v>
       </c>
       <c r="C7">
-        <v>2.3614</v>
+        <v>2.3614000000000002</v>
       </c>
       <c r="D7">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="E7">
-        <v>-2.3223</v>
+        <v>-2.3222999999999998</v>
       </c>
       <c r="F7">
-        <v>-6.9883</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-6.9882999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B8">
-        <v>-4.9686</v>
+        <v>-4.9686000000000003</v>
       </c>
       <c r="C8">
-        <v>1.3905</v>
+        <v>1.3905000000000001</v>
       </c>
       <c r="D8">
-        <v>0.0004</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="E8">
         <v>-2.2222</v>
@@ -3677,27 +3718,27 @@
         <v>-2.7464</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B9">
-        <v>-2.6843</v>
+        <v>-2.6842999999999999</v>
       </c>
       <c r="C9">
-        <v>0.1879</v>
+        <v>0.18790000000000001</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>-9.485200000000001</v>
+        <v>-9.4852000000000007</v>
       </c>
       <c r="F9">
-        <v>6.8009</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>6.8009000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -3705,44 +3746,44 @@
         <v>-1.6067</v>
       </c>
       <c r="C10">
-        <v>0.2345</v>
+        <v>0.23449999999999999</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>-4.9374</v>
+        <v>-4.9374000000000002</v>
       </c>
       <c r="F10">
-        <v>3.3307</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>3.3307000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B11">
-        <v>-3.104</v>
+        <v>-3.1040000000000001</v>
       </c>
       <c r="C11">
-        <v>0.2156</v>
+        <v>0.21560000000000001</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>-9.145799999999999</v>
+        <v>-9.1457999999999995</v>
       </c>
       <c r="F11">
-        <v>6.0418</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>6.0418000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.2992</v>
+        <v>-0.29920000000000002</v>
       </c>
       <c r="C12">
         <v>0.1905</v>
@@ -3751,18 +3792,18 @@
         <v>0.1162</v>
       </c>
       <c r="E12">
-        <v>-1.047</v>
+        <v>-1.0469999999999999</v>
       </c>
       <c r="F12">
-        <v>0.7478</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.74780000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B13">
-        <v>1.8136</v>
+        <v>1.8136000000000001</v>
       </c>
       <c r="C13">
         <v>0.3896</v>
@@ -3774,10 +3815,10 @@
         <v>2.9819</v>
       </c>
       <c r="F13">
-        <v>-1.1683</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-1.1682999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -3791,24 +3832,24 @@
         <v>0.4269</v>
       </c>
       <c r="E14">
-        <v>0.5556</v>
+        <v>0.55559999999999998</v>
       </c>
       <c r="F14">
-        <v>1.0428</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>1.0427999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B15">
-        <v>9.0787</v>
+        <v>9.0786999999999995</v>
       </c>
       <c r="C15">
-        <v>2.2834</v>
+        <v>2.2833999999999999</v>
       </c>
       <c r="D15">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="E15">
         <v>2.9255</v>
@@ -3817,167 +3858,167 @@
         <v>6.1532</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B16">
-        <v>-7.2108</v>
+        <v>-7.2107999999999999</v>
       </c>
       <c r="C16">
         <v>3.0042</v>
       </c>
       <c r="D16">
-        <v>0.0164</v>
+        <v>1.6400000000000001E-2</v>
       </c>
       <c r="E16">
-        <v>-1.4814</v>
+        <v>-1.4814000000000001</v>
       </c>
       <c r="F16">
         <v>-5.7294</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B17">
-        <v>0.887</v>
+        <v>0.88700000000000001</v>
       </c>
       <c r="C17">
-        <v>0.5033</v>
+        <v>0.50329999999999997</v>
       </c>
       <c r="D17">
-        <v>0.078</v>
+        <v>7.8E-2</v>
       </c>
       <c r="E17">
         <v>1.0989</v>
       </c>
       <c r="F17">
-        <v>-0.2119</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>-0.21190000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0.2653</v>
+        <v>0.26529999999999998</v>
       </c>
       <c r="C18">
-        <v>0.037</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>4.4887</v>
+        <v>4.4886999999999997</v>
       </c>
       <c r="F18">
-        <v>-4.2234</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>-4.2233999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B19">
-        <v>1.0899</v>
+        <v>1.0899000000000001</v>
       </c>
       <c r="C19">
-        <v>0.7101</v>
+        <v>0.71009999999999995</v>
       </c>
       <c r="D19">
-        <v>0.1248</v>
+        <v>0.12479999999999999</v>
       </c>
       <c r="E19">
-        <v>1.0053</v>
+        <v>1.0053000000000001</v>
       </c>
       <c r="F19">
-        <v>0.08459999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>8.4599999999999995E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B20">
-        <v>0.8284</v>
+        <v>0.82840000000000003</v>
       </c>
       <c r="C20">
-        <v>0.696</v>
+        <v>0.69599999999999995</v>
       </c>
       <c r="D20">
-        <v>0.234</v>
+        <v>0.23400000000000001</v>
       </c>
       <c r="E20">
-        <v>0.742</v>
+        <v>0.74199999999999999</v>
       </c>
       <c r="F20">
-        <v>0.0864</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>8.6400000000000005E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B21">
-        <v>0.5815</v>
+        <v>0.58150000000000002</v>
       </c>
       <c r="C21">
-        <v>0.7076</v>
+        <v>0.70760000000000001</v>
       </c>
       <c r="D21">
-        <v>0.4112</v>
+        <v>0.41120000000000001</v>
       </c>
       <c r="E21">
-        <v>0.471</v>
+        <v>0.47099999999999997</v>
       </c>
       <c r="F21">
         <v>0.1105</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B22">
-        <v>-2.7899</v>
+        <v>-2.7898999999999998</v>
       </c>
       <c r="C22">
-        <v>0.6841</v>
+        <v>0.68410000000000004</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>-2.647</v>
+        <v>-2.6469999999999998</v>
       </c>
       <c r="F22">
         <v>-0.1429</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B23">
-        <v>-3.1178</v>
+        <v>-3.1177999999999999</v>
       </c>
       <c r="C23">
-        <v>0.6908</v>
+        <v>0.69079999999999997</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>-2.818</v>
+        <v>-2.8180000000000001</v>
       </c>
       <c r="F23">
-        <v>-0.2998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>-0.29980000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
@@ -3985,87 +4026,87 @@
         <v>1.343</v>
       </c>
       <c r="C24">
-        <v>0.6752</v>
+        <v>0.67520000000000002</v>
       </c>
       <c r="D24">
-        <v>0.0467</v>
+        <v>4.6699999999999998E-2</v>
       </c>
       <c r="E24">
-        <v>1.3392</v>
+        <v>1.3391999999999999</v>
       </c>
       <c r="F24">
-        <v>0.0038</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>3.8E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B25">
-        <v>5.6916</v>
+        <v>5.6916000000000002</v>
       </c>
       <c r="C25">
-        <v>0.7068</v>
+        <v>0.70679999999999998</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>5.7668</v>
+        <v>5.7667999999999999</v>
       </c>
       <c r="F25">
-        <v>-0.0752</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-7.5200000000000003E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B26">
-        <v>1.1517</v>
+        <v>1.1516999999999999</v>
       </c>
       <c r="C26">
         <v>0.6714</v>
       </c>
       <c r="D26">
-        <v>0.0863</v>
+        <v>8.6300000000000002E-2</v>
       </c>
       <c r="E26">
         <v>1.1232</v>
       </c>
       <c r="F26">
-        <v>0.0285</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>2.8500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B27">
-        <v>6.6333</v>
+        <v>6.6333000000000002</v>
       </c>
       <c r="C27">
-        <v>0.6702</v>
+        <v>0.67020000000000002</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>6.2446</v>
+        <v>6.2446000000000002</v>
       </c>
       <c r="F27">
-        <v>0.3887</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.38869999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B28">
-        <v>-4.0756</v>
+        <v>-4.0755999999999997</v>
       </c>
       <c r="C28">
-        <v>0.6715</v>
+        <v>0.67149999999999999</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -4074,58 +4115,58 @@
         <v>-3.8129</v>
       </c>
       <c r="F28">
-        <v>-0.2627</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.26269999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B29">
-        <v>-3.6028</v>
+        <v>-3.6027999999999998</v>
       </c>
       <c r="C29">
-        <v>0.6213</v>
+        <v>0.62129999999999996</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>-3.7307</v>
+        <v>-3.7307000000000001</v>
       </c>
       <c r="F29">
-        <v>0.1279</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.12790000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B30">
-        <v>1.5237</v>
+        <v>1.5237000000000001</v>
       </c>
       <c r="C30">
-        <v>0.7534</v>
+        <v>0.75339999999999996</v>
       </c>
       <c r="D30">
-        <v>0.0431</v>
+        <v>4.3099999999999999E-2</v>
       </c>
       <c r="E30">
         <v>1.3089</v>
       </c>
       <c r="F30">
-        <v>0.2148</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.21479999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B31">
-        <v>-1.0477</v>
+        <v>-1.0477000000000001</v>
       </c>
       <c r="C31">
-        <v>0.6564</v>
+        <v>0.65639999999999998</v>
       </c>
       <c r="D31">
         <v>0.1104</v>
@@ -4134,50 +4175,50 @@
         <v>-1.0788</v>
       </c>
       <c r="F31">
-        <v>0.0311</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>3.1099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B32">
-        <v>6.4788</v>
+        <v>6.4787999999999997</v>
       </c>
       <c r="C32">
-        <v>0.7624</v>
+        <v>0.76239999999999997</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>6.4225</v>
+        <v>6.4225000000000003</v>
       </c>
       <c r="F32">
-        <v>0.0563</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>5.6300000000000003E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B33">
-        <v>-4.7762</v>
+        <v>-4.7762000000000002</v>
       </c>
       <c r="C33">
-        <v>0.7926</v>
+        <v>0.79259999999999997</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>-4.8293</v>
+        <v>-4.8292999999999999</v>
       </c>
       <c r="F33">
-        <v>0.0531</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>5.3100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>37</v>
       </c>
@@ -4188,36 +4229,36 @@
         <v>0.7712</v>
       </c>
       <c r="D34">
-        <v>0.5551</v>
+        <v>0.55510000000000004</v>
       </c>
       <c r="E34">
-        <v>0.3199</v>
+        <v>0.31990000000000002</v>
       </c>
       <c r="F34">
-        <v>0.1352</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.13519999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B35">
-        <v>-3.295</v>
+        <v>-3.2949999999999999</v>
       </c>
       <c r="C35">
-        <v>0.7383999999999999</v>
+        <v>0.73839999999999995</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>-3.2785</v>
+        <v>-3.2785000000000002</v>
       </c>
       <c r="F35">
-        <v>-0.0165</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>-1.6500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>39</v>
       </c>
@@ -4225,7 +4266,7 @@
         <v>12.1547</v>
       </c>
       <c r="C36">
-        <v>0.7866</v>
+        <v>0.78659999999999997</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -4237,32 +4278,32 @@
         <v>-1.3269</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B37">
-        <v>-4.4066</v>
+        <v>-4.4066000000000001</v>
       </c>
       <c r="C37">
-        <v>0.9108000000000001</v>
+        <v>0.91080000000000005</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>-4.1524</v>
+        <v>-4.1524000000000001</v>
       </c>
       <c r="F37">
-        <v>-0.2542</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>-0.25419999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B38">
-        <v>5.6385</v>
+        <v>5.6384999999999996</v>
       </c>
       <c r="C38">
         <v>0.5</v>
@@ -4271,38 +4312,38 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>8.423400000000001</v>
+        <v>8.4234000000000009</v>
       </c>
       <c r="F38">
-        <v>-2.7849</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-2.7848999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B39">
-        <v>-4.9081</v>
+        <v>-4.9081000000000001</v>
       </c>
       <c r="C39">
-        <v>0.6506999999999999</v>
+        <v>0.65069999999999995</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>-5.1202</v>
+        <v>-5.1201999999999996</v>
       </c>
       <c r="F39">
-        <v>0.2121</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.21210000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B40">
-        <v>3.5933</v>
+        <v>3.5933000000000002</v>
       </c>
       <c r="C40">
         <v>0.7258</v>
@@ -4314,10 +4355,10 @@
         <v>3.6168</v>
       </c>
       <c r="F40">
-        <v>-0.0235</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-2.35E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>44</v>
       </c>
@@ -4325,144 +4366,144 @@
         <v>-1.4036</v>
       </c>
       <c r="C41">
-        <v>0.7872</v>
+        <v>0.78720000000000001</v>
       </c>
       <c r="D41">
-        <v>0.0746</v>
+        <v>7.46E-2</v>
       </c>
       <c r="E41">
-        <v>-1.2708</v>
+        <v>-1.2707999999999999</v>
       </c>
       <c r="F41">
         <v>-0.1328</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B42">
-        <v>-4.3301</v>
+        <v>-4.3300999999999998</v>
       </c>
       <c r="C42">
-        <v>0.7988</v>
+        <v>0.79879999999999995</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>-4.206</v>
+        <v>-4.2060000000000004</v>
       </c>
       <c r="F42">
         <v>-0.1241</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B43">
-        <v>0.929</v>
+        <v>0.92900000000000005</v>
       </c>
       <c r="C43">
-        <v>0.7645</v>
+        <v>0.76449999999999996</v>
       </c>
       <c r="D43">
         <v>0.2243</v>
       </c>
       <c r="E43">
-        <v>0.8551</v>
+        <v>0.85509999999999997</v>
       </c>
       <c r="F43">
-        <v>0.07389999999999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>7.3899999999999993E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B44">
-        <v>-8.0817</v>
+        <v>-8.0816999999999997</v>
       </c>
       <c r="C44">
-        <v>0.614</v>
+        <v>0.61399999999999999</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44">
-        <v>-8.3573</v>
+        <v>-8.3573000000000004</v>
       </c>
       <c r="F44">
-        <v>0.2756</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.27560000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B45">
-        <v>2.3667</v>
+        <v>2.3666999999999998</v>
       </c>
       <c r="C45">
-        <v>0.835</v>
+        <v>0.83499999999999996</v>
       </c>
       <c r="D45">
-        <v>0.0046</v>
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="E45">
-        <v>2.2291</v>
+        <v>2.2290999999999999</v>
       </c>
       <c r="F45">
         <v>0.1376</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B46">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C46">
-        <v>0.7834</v>
+        <v>0.78339999999999999</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46">
-        <v>3.967</v>
+        <v>3.9670000000000001</v>
       </c>
       <c r="F46">
         <v>0.433</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B47">
-        <v>0.6526</v>
+        <v>0.65259999999999996</v>
       </c>
       <c r="C47">
-        <v>0.464</v>
+        <v>0.46400000000000002</v>
       </c>
       <c r="D47">
-        <v>0.1596</v>
+        <v>0.15959999999999999</v>
       </c>
       <c r="E47">
         <v>1.4214</v>
       </c>
       <c r="F47">
-        <v>-0.7688</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.76880000000000004</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B48">
-        <v>-7.2712</v>
+        <v>-7.2712000000000003</v>
       </c>
       <c r="C48">
         <v>1.2281</v>
@@ -4471,13 +4512,13 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>-7.7648</v>
+        <v>-7.7648000000000001</v>
       </c>
       <c r="F48">
-        <v>0.4936</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.49359999999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>52</v>
       </c>
@@ -4485,39 +4526,39 @@
         <v>-1006.1395</v>
       </c>
       <c r="C49">
-        <v>7803.1368</v>
+        <v>7803.1368000000002</v>
       </c>
       <c r="D49">
-        <v>0.8974</v>
+        <v>0.89739999999999998</v>
       </c>
       <c r="E49">
-        <v>24.1344</v>
+        <v>24.134399999999999</v>
       </c>
       <c r="F49">
-        <v>-1030.2739</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>-1030.2738999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B50">
-        <v>2430.2149</v>
+        <v>2430.2148999999999</v>
       </c>
       <c r="C50">
-        <v>18423.9039</v>
+        <v>18423.903900000001</v>
       </c>
       <c r="D50">
-        <v>0.8951</v>
+        <v>0.89510000000000001</v>
       </c>
       <c r="E50">
         <v>0</v>
       </c>
       <c r="F50">
-        <v>2430.2149</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>2430.2148999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>54</v>
       </c>
@@ -4528,16 +4569,16 @@
         <v>0.4153</v>
       </c>
       <c r="D51">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="E51">
-        <v>4.0596</v>
+        <v>4.0595999999999997</v>
       </c>
       <c r="F51">
-        <v>-2.4247</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-2.4247000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>55</v>
       </c>
@@ -4545,27 +4586,27 @@
         <v>-405.6336</v>
       </c>
       <c r="C52">
-        <v>3118.0422</v>
+        <v>3118.0421999999999</v>
       </c>
       <c r="D52">
-        <v>0.8965</v>
+        <v>0.89649999999999996</v>
       </c>
       <c r="E52">
         <v>15.977</v>
       </c>
       <c r="F52">
-        <v>-421.6106</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>-421.61059999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B53">
-        <v>0.3331</v>
+        <v>0.33310000000000001</v>
       </c>
       <c r="C53">
-        <v>0.0516</v>
+        <v>5.16E-2</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -4574,10 +4615,10 @@
         <v>7.7397</v>
       </c>
       <c r="F53">
-        <v>-7.4066</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-7.4066000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>57</v>
       </c>
@@ -4585,79 +4626,79 @@
         <v>0.2878</v>
       </c>
       <c r="C54">
-        <v>0.0531</v>
+        <v>5.3100000000000001E-2</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54">
-        <v>6.0983</v>
+        <v>6.0983000000000001</v>
       </c>
       <c r="F54">
-        <v>-5.8105</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-5.8105000000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B55">
-        <v>-46.0009</v>
+        <v>-46.000900000000001</v>
       </c>
       <c r="C55">
-        <v>347.8694</v>
+        <v>347.86939999999998</v>
       </c>
       <c r="D55">
-        <v>0.8948</v>
+        <v>0.89480000000000004</v>
       </c>
       <c r="E55">
-        <v>-2.1102</v>
+        <v>-2.1101999999999999</v>
       </c>
       <c r="F55">
-        <v>-43.8907</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-43.890700000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B56">
-        <v>-8.764699999999999</v>
+        <v>-8.7646999999999995</v>
       </c>
       <c r="C56">
-        <v>0.9933</v>
+        <v>0.99329999999999996</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56">
-        <v>-19.4855</v>
+        <v>-19.485499999999998</v>
       </c>
       <c r="F56">
-        <v>10.7208</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>10.720800000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B57">
-        <v>-2.8965</v>
+        <v>-2.8965000000000001</v>
       </c>
       <c r="C57">
-        <v>2.2181</v>
+        <v>2.2181000000000002</v>
       </c>
       <c r="D57">
-        <v>0.1916</v>
+        <v>0.19159999999999999</v>
       </c>
       <c r="E57">
-        <v>-1.0534</v>
+        <v>-1.0533999999999999</v>
       </c>
       <c r="F57">
         <v>-1.8431</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>61</v>
       </c>
@@ -4665,39 +4706,39 @@
         <v>18.6877</v>
       </c>
       <c r="C58">
-        <v>2.2828</v>
+        <v>2.2827999999999999</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58">
-        <v>6.4445</v>
+        <v>6.4444999999999997</v>
       </c>
       <c r="F58">
         <v>12.2432</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B59">
-        <v>9.8794</v>
+        <v>9.8794000000000004</v>
       </c>
       <c r="C59">
-        <v>2.2436</v>
+        <v>2.2435999999999998</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59">
-        <v>3.8805</v>
+        <v>3.8805000000000001</v>
       </c>
       <c r="F59">
-        <v>5.9989</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>5.9988999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>63</v>
       </c>
@@ -4717,7 +4758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>64</v>
       </c>
@@ -4737,7 +4778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>65</v>
       </c>
@@ -4748,7 +4789,7 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -4757,12 +4798,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B63">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -4774,50 +4815,50 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B64">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C64">
         <v>0</v>
       </c>
       <c r="D64">
-        <v>0.0059</v>
+        <v>0</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
       <c r="F64">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B65">
-        <v>-5.1515</v>
+        <v>-5.1515000000000004</v>
       </c>
       <c r="C65">
-        <v>2.3474</v>
+        <v>2.3473999999999999</v>
       </c>
       <c r="D65">
-        <v>0.0282</v>
+        <v>2.8199999999999999E-2</v>
       </c>
       <c r="E65">
-        <v>-1.8845</v>
+        <v>-1.8845000000000001</v>
       </c>
       <c r="F65">
-        <v>-3.267</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-3.2669999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>69</v>
       </c>
@@ -4834,7 +4875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>70</v>
       </c>
@@ -4851,12 +4892,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B68">
-        <v>23.4764</v>
+        <v>23.476400000000002</v>
       </c>
       <c r="C68">
         <v>2.4312</v>
@@ -4865,53 +4906,53 @@
         <v>0</v>
       </c>
       <c r="E68">
-        <v>7.3799</v>
+        <v>7.3799000000000001</v>
       </c>
       <c r="F68">
-        <v>16.0965</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>16.096499999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B69">
-        <v>20.7975</v>
+        <v>20.797499999999999</v>
       </c>
       <c r="C69">
-        <v>1.3679</v>
+        <v>1.3678999999999999</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="E69">
-        <v>10.2976</v>
+        <v>10.297599999999999</v>
       </c>
       <c r="F69">
         <v>10.4999</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B70">
-        <v>-3.0251</v>
+        <v>-3.0251000000000001</v>
       </c>
       <c r="C70">
-        <v>6.2595</v>
+        <v>6.2595000000000001</v>
       </c>
       <c r="D70">
-        <v>0.6289</v>
+        <v>0.62890000000000001</v>
       </c>
       <c r="E70">
-        <v>-0.2456</v>
+        <v>-0.24560000000000001</v>
       </c>
       <c r="F70">
-        <v>-2.7795</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>-2.7795000000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>74</v>
       </c>
@@ -4922,16 +4963,16 @@
         <v>5.0278</v>
       </c>
       <c r="D71">
-        <v>0.6926</v>
+        <v>0.69259999999999999</v>
       </c>
       <c r="E71">
-        <v>-0.2047</v>
+        <v>-0.20469999999999999</v>
       </c>
       <c r="F71">
-        <v>-1.783</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-1.7829999999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>75</v>
       </c>
@@ -4942,30 +4983,30 @@
         <v>1.3284</v>
       </c>
       <c r="D72">
-        <v>0.0017</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="E72">
-        <v>-1.9461</v>
+        <v>-1.9460999999999999</v>
       </c>
       <c r="F72">
-        <v>-2.217</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-2.2170000000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.9757</v>
+        <v>-0.97570000000000001</v>
       </c>
       <c r="C73">
         <v>1.7114</v>
       </c>
       <c r="D73">
-        <v>0.5686</v>
+        <v>0.56859999999999999</v>
       </c>
       <c r="E73">
-        <v>-0.3235</v>
+        <v>-0.32350000000000001</v>
       </c>
       <c r="F73">
         <v>-0.6522</v>
